--- a/CardinalSampleData.xlsx
+++ b/CardinalSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickg\Documents\GitHub\Test-Nick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72650FFD-1FAC-4D9E-97EB-F1484E1A628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E9BE7-43D4-4843-B149-E6A77AAD62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="825" windowWidth="19245" windowHeight="14175" xr2:uid="{D5CC89B9-CC86-4E69-B7DA-ED14CB5BCD8D}"/>
   </bookViews>
